--- a/Python/Data_10182024.xlsx
+++ b/Python/Data_10182024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\PSYC\Oberlin_Lab\2. Projects, Collaborations, and Grants\0. Projects\Iris\FRAP neuroimaging paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen21\Desktop\PCA\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C164B-9BE2-4488-BE4C-8B4038A6233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F5AA0-9A88-4873-99CA-7D71B6EF746B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{53684D90-A8C0-42DE-9F8C-D6269A4E5860}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
-  <si>
-    <t>Run Order</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Days_Abstinence</t>
   </si>
@@ -408,6 +405,72 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>SubID</t>
+  </si>
+  <si>
+    <t>RunOrder</t>
   </si>
 </sst>
 </file>
@@ -423,15 +486,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -439,13 +508,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADBEC89-EBE4-42BA-889B-C04E9DADEF51}">
-  <dimension ref="A1:DS21"/>
+  <dimension ref="A1:DT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BP1" sqref="BP1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,581 +875,584 @@
     <col min="47" max="47" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>49</v>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C2">
         <v>49</v>
       </c>
       <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
         <v>33</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>37</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>35</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>72</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12</v>
       </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
       <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
         <v>8</v>
       </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
       <c r="L2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
         <v>38</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>19</v>
       </c>
-      <c r="O2">
-        <v>6</v>
-      </c>
       <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
         <v>25</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>15</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>65</v>
       </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC2">
         <v>4</v>
       </c>
       <c r="AD2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE2">
         <v>5</v>
       </c>
       <c r="AF2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AN2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP2">
         <v>5</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ2">
         <v>6</v>
       </c>
       <c r="BA2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BF2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG2">
         <v>2</v>
       </c>
       <c r="BH2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BM2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BN2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BQ2">
         <v>1</v>
@@ -1354,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="BS2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT2">
         <v>2</v>
@@ -1363,142 +1470,145 @@
         <v>2</v>
       </c>
       <c r="BV2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BW2">
         <v>6</v>
       </c>
       <c r="BX2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BY2">
         <v>4</v>
       </c>
       <c r="BZ2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CA2">
         <v>6</v>
       </c>
       <c r="CB2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CC2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CE2">
         <v>2</v>
       </c>
       <c r="CF2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CG2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CJ2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CK2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CL2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CM2">
-        <v>5</v>
-      </c>
-      <c r="DL2">
+        <v>4</v>
+      </c>
+      <c r="CN2">
+        <v>5</v>
+      </c>
+      <c r="DM2">
         <v>0.27302226000000002</v>
       </c>
-      <c r="DM2">
+      <c r="DN2">
         <v>5.9133520000000002E-3</v>
       </c>
-      <c r="DN2">
+      <c r="DO2">
         <v>0.41582191800000001</v>
       </c>
-      <c r="DO2">
+      <c r="DP2">
         <v>4.1913369999999998E-3</v>
       </c>
-      <c r="DP2">
+      <c r="DQ2">
         <v>0.6875</v>
       </c>
-      <c r="DQ2">
+      <c r="DR2">
         <v>0.26189212299999998</v>
       </c>
-      <c r="DR2">
+      <c r="DS2">
         <v>5.85791E-3</v>
       </c>
-      <c r="DS2">
+      <c r="DT2">
         <v>0.625</v>
       </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3">
         <v>52</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>55</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>24</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>41</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>75</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
       <c r="I3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
         <v>14</v>
       </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
         <v>37</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>18</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>16</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>56</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="T3">
         <v>1</v>
       </c>
@@ -1518,61 +1628,61 @@
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE3">
         <v>6</v>
       </c>
       <c r="AF3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG3">
         <v>7</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
       <c r="AJ3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ3">
-        <v>5</v>
-      </c>
-      <c r="BP3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AR3">
+        <v>5</v>
       </c>
       <c r="BQ3">
         <v>1</v>
@@ -1590,16 +1700,16 @@
         <v>1</v>
       </c>
       <c r="BV3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BW3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BX3">
         <v>7</v>
       </c>
       <c r="BY3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BZ3">
         <v>6</v>
@@ -1608,43 +1718,43 @@
         <v>6</v>
       </c>
       <c r="CB3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC3">
         <v>7</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CE3">
         <v>1</v>
       </c>
       <c r="CF3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CG3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CJ3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CK3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CL3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM3">
         <v>5</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CO3">
         <v>1</v>
@@ -1662,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="CT3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CU3">
         <v>6</v>
@@ -1674,138 +1784,141 @@
         <v>6</v>
       </c>
       <c r="CX3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CY3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CZ3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DA3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DB3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DC3">
         <v>1</v>
       </c>
       <c r="DD3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DF3">
         <v>1</v>
       </c>
       <c r="DG3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DI3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DK3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DL3">
+        <v>3</v>
+      </c>
+      <c r="DM3">
         <v>8.6130136999999996E-2</v>
       </c>
-      <c r="DM3">
+      <c r="DN3">
         <v>0.107623803</v>
       </c>
-      <c r="DN3">
+      <c r="DO3">
         <v>0.12902397299999999</v>
       </c>
-      <c r="DO3">
+      <c r="DP3">
         <v>6.5268485000000001E-2</v>
       </c>
-      <c r="DP3">
+      <c r="DQ3">
         <v>0.70833333300000001</v>
       </c>
-      <c r="DQ3">
+      <c r="DR3">
         <v>6.7679795000000001E-2</v>
       </c>
-      <c r="DR3">
+      <c r="DS3">
         <v>7.9319744999999997E-2</v>
       </c>
-      <c r="DS3">
+      <c r="DT3">
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4">
         <v>203</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>54</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>39</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>35</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>74</v>
       </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
       <c r="I4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
         <v>9</v>
       </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
       <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
         <v>30</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>14</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>17</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>15</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>12</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>58</v>
       </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1817,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC4">
         <v>7</v>
@@ -1841,43 +1954,43 @@
         <v>7</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU4">
         <v>1</v>
@@ -1889,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="AX4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA4">
         <v>7</v>
@@ -1913,38 +2026,38 @@
         <v>7</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG4">
         <v>1</v>
       </c>
       <c r="BH4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ4">
         <v>1</v>
       </c>
       <c r="BK4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BM4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
         <v>8</v>
       </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
       <c r="BQ4">
         <v>1</v>
       </c>
@@ -1961,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="BV4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BW4">
         <v>7</v>
@@ -1985,43 +2098,43 @@
         <v>7</v>
       </c>
       <c r="CD4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CE4">
         <v>1</v>
       </c>
       <c r="CF4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CG4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH4">
         <v>1</v>
       </c>
       <c r="CI4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CL4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM4">
         <v>8</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CO4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CQ4">
         <v>1</v>
@@ -2033,142 +2146,145 @@
         <v>1</v>
       </c>
       <c r="CT4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CU4">
         <v>7</v>
       </c>
       <c r="CV4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW4">
         <v>6</v>
       </c>
       <c r="CX4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CY4">
         <v>7</v>
       </c>
       <c r="CZ4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DA4">
         <v>6</v>
       </c>
       <c r="DB4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DC4">
         <v>1</v>
       </c>
       <c r="DD4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DF4">
         <v>1</v>
       </c>
       <c r="DG4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DI4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DJ4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DK4">
         <v>8</v>
       </c>
       <c r="DL4">
+        <v>8</v>
+      </c>
+      <c r="DM4">
         <v>8.1746575000000002E-2</v>
       </c>
-      <c r="DM4">
+      <c r="DN4">
         <v>0.26478869900000002</v>
       </c>
-      <c r="DN4">
+      <c r="DO4">
         <v>8.5607876999999999E-2</v>
       </c>
-      <c r="DO4">
+      <c r="DP4">
         <v>8.7838876999999996E-2</v>
       </c>
-      <c r="DP4">
+      <c r="DQ4">
         <v>0.23404255299999999</v>
       </c>
-      <c r="DQ4">
+      <c r="DR4">
         <v>6.4272259999999998E-2</v>
       </c>
-      <c r="DR4">
+      <c r="DS4">
         <v>0.59316153900000002</v>
       </c>
-      <c r="DS4">
+      <c r="DT4">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5">
         <v>147</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>32</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>28</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>64</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9</v>
       </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
       <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
         <v>8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>16</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>9</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>47</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>19</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>12</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>75</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
       <c r="T5">
         <v>1</v>
       </c>
@@ -2188,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>5</v>
@@ -2200,49 +2316,49 @@
         <v>5</v>
       </c>
       <c r="AD5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5">
         <v>6</v>
       </c>
       <c r="AF5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG5">
         <v>7</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI5">
         <v>1</v>
       </c>
       <c r="AJ5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ5">
         <v>5</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS5">
         <v>1</v>
@@ -2260,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="AX5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY5">
         <v>6</v>
@@ -2278,43 +2394,43 @@
         <v>6</v>
       </c>
       <c r="BD5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG5">
         <v>1</v>
       </c>
       <c r="BH5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ5">
         <v>1</v>
       </c>
       <c r="BK5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BM5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BN5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO5">
         <v>5</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ5">
         <v>1</v>
@@ -2323,16 +2439,16 @@
         <v>1</v>
       </c>
       <c r="BS5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU5">
         <v>1</v>
       </c>
       <c r="BV5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BW5">
         <v>6</v>
@@ -2356,43 +2472,43 @@
         <v>6</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CE5">
         <v>1</v>
       </c>
       <c r="CF5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CH5">
         <v>1</v>
       </c>
       <c r="CI5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CK5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CL5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM5">
         <v>5</v>
       </c>
       <c r="CN5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CO5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CQ5">
         <v>1</v>
@@ -2404,150 +2520,153 @@
         <v>1</v>
       </c>
       <c r="CT5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU5">
         <v>5</v>
       </c>
       <c r="CV5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW5">
         <v>4</v>
       </c>
       <c r="CX5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CY5">
         <v>5</v>
       </c>
       <c r="CZ5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DB5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DC5">
         <v>3</v>
       </c>
       <c r="DD5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DE5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DF5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DH5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DI5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DJ5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DK5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DL5">
+        <v>4</v>
+      </c>
+      <c r="DM5">
         <v>0.33950342500000003</v>
       </c>
-      <c r="DM5">
+      <c r="DN5">
         <v>8.5330089999999994E-3</v>
       </c>
-      <c r="DN5">
+      <c r="DO5">
         <v>0.98438356199999999</v>
       </c>
-      <c r="DO5" s="1">
+      <c r="DP5" s="1">
         <v>1.1055300000000001E-5</v>
       </c>
-      <c r="DP5">
-        <v>1</v>
-      </c>
       <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
         <v>0.15794520500000001</v>
       </c>
-      <c r="DR5">
+      <c r="DS5">
         <v>1.7204243000000001E-2</v>
       </c>
-      <c r="DS5">
+      <c r="DT5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6">
         <v>52</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>54</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>35</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>65</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>14</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>40</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>19</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>21</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>14</v>
       </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
       <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6">
         <v>60</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -2559,13 +2678,13 @@
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>5</v>
       </c>
       <c r="AB6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC6">
         <v>6</v>
@@ -2580,40 +2699,40 @@
         <v>6</v>
       </c>
       <c r="AG6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS6">
         <v>1</v>
@@ -2631,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="AX6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY6">
         <v>6</v>
@@ -2643,10 +2762,10 @@
         <v>6</v>
       </c>
       <c r="BB6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD6">
         <v>6</v>
@@ -2655,118 +2774,118 @@
         <v>6</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG6">
         <v>1</v>
       </c>
       <c r="BH6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BM6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP6">
         <v>1</v>
       </c>
       <c r="BQ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR6">
         <v>2</v>
       </c>
       <c r="BS6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BT6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BX6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY6">
         <v>5</v>
       </c>
       <c r="BZ6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CA6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CB6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CD6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE6">
         <v>1</v>
       </c>
       <c r="CF6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH6">
         <v>1</v>
       </c>
       <c r="CI6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CL6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CM6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP6">
         <v>2</v>
       </c>
       <c r="CQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CR6">
         <v>1</v>
@@ -2775,10 +2894,10 @@
         <v>1</v>
       </c>
       <c r="CT6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV6">
         <v>6</v>
@@ -2790,207 +2909,210 @@
         <v>6</v>
       </c>
       <c r="CY6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CZ6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DA6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DC6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DD6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="DE6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DF6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DH6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DI6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DJ6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DK6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DL6">
+        <v>4</v>
+      </c>
+      <c r="DM6">
         <v>0.32826198600000001</v>
       </c>
-      <c r="DM6">
+      <c r="DN6">
         <v>6.3671259999999999E-3</v>
       </c>
-      <c r="DN6">
+      <c r="DO6">
         <v>0.48126712300000002</v>
       </c>
-      <c r="DO6">
+      <c r="DP6">
         <v>2.190394E-3</v>
       </c>
-      <c r="DP6">
+      <c r="DQ6">
         <v>0.16666666699999999</v>
       </c>
-      <c r="DQ6">
+      <c r="DR6">
         <v>0.374554795</v>
       </c>
-      <c r="DR6">
+      <c r="DS6">
         <v>3.8762570000000001E-3</v>
       </c>
-      <c r="DS6">
+      <c r="DT6">
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7">
         <v>71</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>46</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>62</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
       <c r="J7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
         <v>12</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>43</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>19</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>17</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>71</v>
       </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
       <c r="T7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>5</v>
       </c>
       <c r="AB7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE7">
         <v>4</v>
       </c>
       <c r="AF7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU7">
         <v>1</v>
@@ -3002,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="AX7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY7">
         <v>5</v>
@@ -3014,55 +3136,55 @@
         <v>5</v>
       </c>
       <c r="BB7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BE7">
         <v>6</v>
       </c>
       <c r="BF7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BM7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BS7">
         <v>2</v>
@@ -3074,85 +3196,85 @@
         <v>2</v>
       </c>
       <c r="BV7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BW7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BY7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CC7">
         <v>6</v>
       </c>
       <c r="CD7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CE7">
         <v>3</v>
       </c>
       <c r="CF7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CG7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CH7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CJ7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CK7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CQ7">
         <v>1</v>
       </c>
       <c r="CR7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CS7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CT7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CU7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CV7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW7">
         <v>5</v>
@@ -3164,97 +3286,100 @@
         <v>5</v>
       </c>
       <c r="CZ7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="DA7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DC7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DD7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DE7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DF7">
         <v>1</v>
       </c>
       <c r="DG7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DH7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DI7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DJ7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DK7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DL7">
+        <v>2</v>
+      </c>
+      <c r="DM7">
         <v>0.26711472600000002</v>
       </c>
-      <c r="DM7">
+      <c r="DN7">
         <v>1.0218447E-2</v>
       </c>
-      <c r="DN7">
+      <c r="DO7">
         <v>0.37315068499999998</v>
       </c>
-      <c r="DO7">
+      <c r="DP7">
         <v>4.8948940000000003E-3</v>
       </c>
-      <c r="DP7">
+      <c r="DQ7">
         <v>0.16666666699999999</v>
       </c>
-      <c r="DQ7">
+      <c r="DR7">
         <v>0.57810787699999999</v>
       </c>
-      <c r="DR7">
+      <c r="DS7">
         <v>1.4722439999999999E-3</v>
       </c>
-      <c r="DS7">
+      <c r="DT7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8">
         <v>54</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>34</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>38</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>28</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>66</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>15</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
       <c r="K8">
         <v>7</v>
       </c>
@@ -3262,106 +3387,106 @@
         <v>7</v>
       </c>
       <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
         <v>45</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>22</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>24</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>19</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>17</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>82</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>3</v>
       </c>
       <c r="AB8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8">
         <v>3</v>
       </c>
       <c r="AF8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO8">
         <v>4</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8">
         <v>1</v>
@@ -3373,16 +3498,16 @@
         <v>1</v>
       </c>
       <c r="AX8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB8">
         <v>2</v>
@@ -3391,106 +3516,106 @@
         <v>2</v>
       </c>
       <c r="BD8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BE8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ8">
         <v>3</v>
       </c>
       <c r="BK8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BM8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS8">
         <v>1</v>
       </c>
       <c r="BT8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BX8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BZ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CC8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CD8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CE8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CG8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CH8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CI8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CK8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CL8">
         <v>4</v>
@@ -3499,180 +3624,183 @@
         <v>4</v>
       </c>
       <c r="CN8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CO8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS8">
         <v>1</v>
       </c>
       <c r="CT8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CU8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CW8">
         <v>3</v>
       </c>
       <c r="CX8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CY8">
         <v>4</v>
       </c>
       <c r="CZ8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DA8">
         <v>5</v>
       </c>
       <c r="DB8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DC8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DD8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DE8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DF8">
         <v>2</v>
       </c>
       <c r="DG8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DH8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DI8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DJ8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DK8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DL8">
+        <v>5</v>
+      </c>
+      <c r="DM8">
         <v>0.41724315099999998</v>
       </c>
-      <c r="DM8">
+      <c r="DN8">
         <v>2.2301790000000001E-3</v>
       </c>
-      <c r="DN8">
+      <c r="DO8">
         <v>0.42483732899999999</v>
       </c>
-      <c r="DO8">
+      <c r="DP8">
         <v>2.2016689999999998E-3</v>
       </c>
-      <c r="DP8">
+      <c r="DQ8">
         <v>0.125</v>
       </c>
-      <c r="DQ8">
+      <c r="DR8">
         <v>0.116849315</v>
       </c>
-      <c r="DR8">
+      <c r="DS8">
         <v>0.16297023499999999</v>
       </c>
-      <c r="DS8">
+      <c r="DT8">
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>41</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>39</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>69</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15</v>
       </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>13</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>20</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>26</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>11</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>70</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>5</v>
@@ -3681,16 +3809,16 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD9">
         <v>4</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9">
         <v>6</v>
@@ -3699,49 +3827,49 @@
         <v>6</v>
       </c>
       <c r="AI9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9">
         <v>4</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX9">
         <v>4</v>
@@ -3753,70 +3881,70 @@
         <v>4</v>
       </c>
       <c r="BA9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC9">
         <v>3</v>
       </c>
       <c r="BD9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ9">
         <v>3</v>
       </c>
       <c r="BK9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BM9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BN9">
         <v>4</v>
       </c>
       <c r="BO9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BT9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU9">
         <v>2</v>
       </c>
       <c r="BV9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BW9">
         <v>5</v>
@@ -3825,13 +3953,13 @@
         <v>5</v>
       </c>
       <c r="BY9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BZ9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CB9">
         <v>6</v>
@@ -3840,43 +3968,43 @@
         <v>6</v>
       </c>
       <c r="CD9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CE9">
         <v>2</v>
       </c>
       <c r="CF9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CG9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CH9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CI9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CJ9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CK9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CN9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CO9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CP9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CQ9">
         <v>3</v>
@@ -3885,13 +4013,13 @@
         <v>3</v>
       </c>
       <c r="CS9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CT9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CU9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV9">
         <v>2</v>
@@ -3900,138 +4028,141 @@
         <v>2</v>
       </c>
       <c r="CX9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CY9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CZ9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DA9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB9">
         <v>2</v>
       </c>
       <c r="DC9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DD9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DE9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DF9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DG9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DH9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DI9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DJ9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DK9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DL9">
+        <v>3</v>
+      </c>
+      <c r="DM9">
         <v>0.42172089000000001</v>
       </c>
-      <c r="DM9">
+      <c r="DN9">
         <v>2.9191849999999999E-3</v>
       </c>
-      <c r="DN9">
+      <c r="DO9">
         <v>0.66730308199999999</v>
       </c>
-      <c r="DO9">
+      <c r="DP9">
         <v>6.4885099999999999E-4</v>
       </c>
-      <c r="DP9">
+      <c r="DQ9">
         <v>6.25E-2</v>
       </c>
-      <c r="DQ9">
+      <c r="DR9">
         <v>0.38856164399999998</v>
       </c>
-      <c r="DR9">
+      <c r="DS9">
         <v>3.6987949999999999E-3</v>
       </c>
-      <c r="DS9">
+      <c r="DT9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10">
         <v>153</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>46</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>18</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>34</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>64</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
       <c r="J10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
         <v>14</v>
       </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
       <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
         <v>38</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>24</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>23</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>19</v>
       </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
       <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
         <v>72</v>
       </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
       <c r="T10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -4040,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA10">
         <v>6</v>
@@ -4058,46 +4189,46 @@
         <v>6</v>
       </c>
       <c r="AE10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG10">
         <v>7</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS10">
         <v>1</v>
@@ -4112,10 +4243,10 @@
         <v>1</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY10">
         <v>7</v>
@@ -4130,46 +4261,46 @@
         <v>7</v>
       </c>
       <c r="BC10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ10">
         <v>1</v>
       </c>
       <c r="BK10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BM10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BO10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ10">
         <v>1</v>
@@ -4187,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="BV10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BW10">
         <v>7</v>
@@ -4202,46 +4333,46 @@
         <v>7</v>
       </c>
       <c r="CA10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB10">
         <v>6</v>
       </c>
       <c r="CC10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CD10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CE10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CF10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CG10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH10">
         <v>1</v>
       </c>
       <c r="CI10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CL10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM10">
         <v>5</v>
       </c>
       <c r="CN10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CO10">
         <v>1</v>
@@ -4259,210 +4390,213 @@
         <v>1</v>
       </c>
       <c r="CT10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CU10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW10">
         <v>6</v>
       </c>
       <c r="CX10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CY10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CZ10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DA10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="DB10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DC10">
         <v>1</v>
       </c>
       <c r="DD10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DE10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DF10">
         <v>1</v>
       </c>
       <c r="DG10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DH10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DI10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DJ10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DK10">
         <v>3</v>
       </c>
       <c r="DL10">
+        <v>3</v>
+      </c>
+      <c r="DM10">
         <v>0.289041096</v>
       </c>
-      <c r="DM10">
+      <c r="DN10">
         <v>6.9467390000000004E-3</v>
       </c>
-      <c r="DN10">
+      <c r="DO10">
         <v>0.39648972599999999</v>
       </c>
-      <c r="DO10">
+      <c r="DP10">
         <v>3.8862469999999998E-3</v>
       </c>
-      <c r="DP10">
+      <c r="DQ10">
         <v>8.5106382999999994E-2</v>
       </c>
-      <c r="DQ10">
+      <c r="DR10">
         <v>0.27411815099999998</v>
       </c>
-      <c r="DR10">
+      <c r="DS10">
         <v>1.180001E-2</v>
       </c>
-      <c r="DS10">
+      <c r="DT10">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11">
         <v>51</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>49</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>27</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>60</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
       <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
         <v>14</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>57</v>
-      </c>
-      <c r="N11">
-        <v>28</v>
       </c>
       <c r="O11">
         <v>28</v>
       </c>
       <c r="P11">
+        <v>28</v>
+      </c>
+      <c r="Q11">
         <v>21</v>
       </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
       <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
         <v>84</v>
       </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X11">
         <v>4</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB11">
         <v>5</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -4471,67 +4605,67 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU11">
         <v>1</v>
       </c>
       <c r="AV11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY11">
         <v>4</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BD11">
         <v>7</v>
       </c>
       <c r="BE11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF11">
         <v>5</v>
       </c>
       <c r="BG11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BK11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BL11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -4540,25 +4674,25 @@
         <v>1</v>
       </c>
       <c r="BP11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BR11">
         <v>7</v>
       </c>
       <c r="BS11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BT11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BU11">
         <v>7</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BW11">
         <v>1</v>
@@ -4576,216 +4710,219 @@
         <v>1</v>
       </c>
       <c r="CB11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CD11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CE11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CG11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CI11">
         <v>7</v>
       </c>
       <c r="CJ11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CK11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL11">
         <v>1</v>
       </c>
       <c r="CM11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CO11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CP11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CQ11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CR11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CS11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CT11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CX11">
         <v>4</v>
       </c>
       <c r="CY11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="DA11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DB11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DC11">
         <v>7</v>
       </c>
       <c r="DD11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="DE11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DF11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DG11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DH11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="DI11">
         <v>7</v>
       </c>
       <c r="DJ11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DK11">
         <v>4</v>
       </c>
       <c r="DL11">
+        <v>4</v>
+      </c>
+      <c r="DM11">
         <v>0.27317637</v>
       </c>
-      <c r="DM11">
+      <c r="DN11">
         <v>2.6371539999999999E-2</v>
       </c>
-      <c r="DN11">
+      <c r="DO11">
         <v>0.29748287699999998</v>
       </c>
-      <c r="DO11">
+      <c r="DP11">
         <v>7.7096379000000007E-2</v>
       </c>
-      <c r="DP11">
+      <c r="DQ11">
         <v>8.5106382999999994E-2</v>
       </c>
-      <c r="DQ11">
+      <c r="DR11">
         <v>8.6301370000000002E-2</v>
       </c>
-      <c r="DR11">
+      <c r="DS11">
         <v>7.1563896000000002E-2</v>
       </c>
-      <c r="DS11">
+      <c r="DT11">
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12">
         <v>76</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>46</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>21</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>35</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>33</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>68</v>
       </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
       <c r="I12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>4</v>
       </c>
       <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="L12">
-        <v>7</v>
-      </c>
       <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
         <v>35</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>21</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>18</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>15</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>8</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>62</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>9</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
       <c r="U12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <v>5</v>
@@ -4800,64 +4937,64 @@
         <v>5</v>
       </c>
       <c r="AE12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG12">
         <v>6</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI12">
         <v>2</v>
       </c>
       <c r="AJ12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL12">
         <v>2</v>
       </c>
       <c r="AM12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ12">
         <v>5</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY12">
         <v>5</v>
@@ -4869,76 +5006,76 @@
         <v>5</v>
       </c>
       <c r="BB12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12">
         <v>4</v>
       </c>
       <c r="BD12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG12">
         <v>3</v>
       </c>
       <c r="BH12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ12">
         <v>2</v>
       </c>
       <c r="BK12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BM12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BN12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BO12">
         <v>5</v>
       </c>
       <c r="BP12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT12">
         <v>2</v>
       </c>
       <c r="BU12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BX12">
         <v>6</v>
       </c>
       <c r="BY12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ12">
         <v>5</v>
@@ -4953,201 +5090,204 @@
         <v>5</v>
       </c>
       <c r="CD12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CG12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH12">
         <v>1</v>
       </c>
       <c r="CI12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CL12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CM12">
         <v>6</v>
       </c>
       <c r="CN12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CO12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CP12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CQ12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CR12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CS12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CU12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CW12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CX12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CY12">
         <v>5</v>
       </c>
       <c r="CZ12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DA12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DB12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DC12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DD12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DE12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DF12">
         <v>2</v>
       </c>
       <c r="DG12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DH12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DI12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DJ12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DK12">
         <v>5</v>
       </c>
       <c r="DL12">
+        <v>5</v>
+      </c>
+      <c r="DM12">
         <v>4.3518835999999998E-2</v>
       </c>
-      <c r="DM12">
+      <c r="DN12">
         <v>5.032669E-2</v>
       </c>
-      <c r="DN12">
+      <c r="DO12">
         <v>7.6797945000000006E-2</v>
       </c>
-      <c r="DO12">
+      <c r="DP12">
         <v>2.0237084999999998E-2</v>
       </c>
-      <c r="DP12">
-        <v>1</v>
-      </c>
       <c r="DQ12">
+        <v>1</v>
+      </c>
+      <c r="DR12">
         <v>0.105633562</v>
       </c>
-      <c r="DR12">
+      <c r="DS12">
         <v>2.8556148E-2</v>
       </c>
-      <c r="DS12">
+      <c r="DT12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>46</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>23</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>36</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>37</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>73</v>
       </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
       <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
         <v>9</v>
       </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
       <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
         <v>12</v>
       </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
       <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
         <v>39</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>27</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>21</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>23</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>72</v>
       </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
       <c r="T13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <v>1</v>
@@ -5156,70 +5296,70 @@
         <v>1</v>
       </c>
       <c r="Z13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF13">
         <v>5</v>
       </c>
       <c r="AG13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL13">
         <v>2</v>
       </c>
       <c r="AM13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ13">
         <v>3</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -5228,22 +5368,22 @@
         <v>1</v>
       </c>
       <c r="AX13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD13">
         <v>4</v>
@@ -5252,43 +5392,43 @@
         <v>4</v>
       </c>
       <c r="BF13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ13">
         <v>2</v>
       </c>
       <c r="BK13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BM13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BN13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BO13">
         <v>3</v>
       </c>
       <c r="BP13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS13">
         <v>1</v>
@@ -5300,22 +5440,22 @@
         <v>1</v>
       </c>
       <c r="BV13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BX13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CA13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CB13">
         <v>5</v>
@@ -5324,37 +5464,37 @@
         <v>5</v>
       </c>
       <c r="CD13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE13">
         <v>1</v>
       </c>
       <c r="CF13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CG13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CH13">
         <v>2</v>
       </c>
       <c r="CI13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CJ13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CL13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CM13">
         <v>4</v>
       </c>
       <c r="CN13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CO13">
         <v>1</v>
@@ -5372,111 +5512,114 @@
         <v>1</v>
       </c>
       <c r="CT13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CU13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CV13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CW13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CX13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CY13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CZ13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DA13">
         <v>5</v>
       </c>
       <c r="DB13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DC13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DD13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="DE13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DF13">
         <v>2</v>
       </c>
       <c r="DG13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DH13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DI13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DJ13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DK13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DL13">
+        <v>6</v>
+      </c>
+      <c r="DM13">
         <v>0.48619006799999998</v>
       </c>
-      <c r="DM13">
+      <c r="DN13">
         <v>7.8984780000000004E-3</v>
       </c>
-      <c r="DN13">
+      <c r="DO13">
         <v>0.35196917799999999</v>
       </c>
-      <c r="DO13">
+      <c r="DP13">
         <v>1.5636823000000001E-2</v>
       </c>
-      <c r="DP13">
+      <c r="DQ13">
         <v>0.625</v>
       </c>
-      <c r="DQ13">
+      <c r="DR13">
         <v>0.64897260300000004</v>
       </c>
-      <c r="DR13">
+      <c r="DS13">
         <v>8.3319100000000005E-4</v>
       </c>
-      <c r="DS13">
+      <c r="DT13">
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>44</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>31</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>34</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>77</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>11</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -5485,97 +5628,97 @@
         <v>10</v>
       </c>
       <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
         <v>14</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>55</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>24</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>23</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>28</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>17</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>92</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <v>6</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI14">
         <v>2</v>
       </c>
       <c r="AJ14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK14">
         <v>4</v>
       </c>
       <c r="AL14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -5599,37 +5742,37 @@
         <v>1</v>
       </c>
       <c r="AX14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA14">
         <v>3</v>
       </c>
       <c r="BB14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BE14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG14">
         <v>1</v>
       </c>
       <c r="BH14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BI14">
         <v>4</v>
@@ -5638,70 +5781,70 @@
         <v>4</v>
       </c>
       <c r="BK14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BL14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BM14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BN14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP14">
         <v>1</v>
       </c>
       <c r="BQ14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BR14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BS14">
         <v>2</v>
       </c>
       <c r="BT14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV14">
         <v>1</v>
       </c>
       <c r="BW14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX14">
         <v>2</v>
       </c>
       <c r="BY14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CA14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CB14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CC14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CD14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CE14">
         <v>1</v>
       </c>
       <c r="CF14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CG14">
         <v>4</v>
@@ -5710,25 +5853,25 @@
         <v>4</v>
       </c>
       <c r="CI14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CJ14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CM14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP14">
         <v>5</v>
@@ -5740,25 +5883,25 @@
         <v>5</v>
       </c>
       <c r="CS14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CT14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CV14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW14">
         <v>1</v>
       </c>
       <c r="CX14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CZ14">
         <v>1</v>
@@ -5767,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="DB14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DC14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DD14">
         <v>4</v>
@@ -5779,106 +5922,109 @@
         <v>4</v>
       </c>
       <c r="DF14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DG14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="DH14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DI14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DJ14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DK14">
         <v>1</v>
       </c>
       <c r="DL14">
+        <v>1</v>
+      </c>
+      <c r="DM14">
         <v>0.36100171199999997</v>
       </c>
-      <c r="DM14">
+      <c r="DN14">
         <v>3.8803510000000002E-3</v>
       </c>
-      <c r="DN14">
+      <c r="DO14">
         <v>0.44896404099999998</v>
       </c>
-      <c r="DO14">
+      <c r="DP14">
         <v>2.5425669999999999E-3</v>
       </c>
-      <c r="DP14">
+      <c r="DQ14">
         <v>0</v>
       </c>
-      <c r="DQ14">
+      <c r="DR14">
         <v>0.225993151</v>
       </c>
-      <c r="DR14">
+      <c r="DS14">
         <v>1.0974868E-2</v>
       </c>
-      <c r="DS14">
+      <c r="DT14">
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>39</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>36</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>45</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>81</v>
       </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
       <c r="I15">
         <v>6</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
         <v>9</v>
       </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
       <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
         <v>29</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>28</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>20</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>21</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
       <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>70</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
       <c r="T15">
         <v>1</v>
       </c>
@@ -5898,19 +6044,19 @@
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC15">
         <v>4</v>
       </c>
       <c r="AD15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE15">
         <v>6</v>
@@ -5922,37 +6068,37 @@
         <v>6</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI15">
         <v>1</v>
       </c>
       <c r="AJ15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AQ15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS15">
         <v>1</v>
@@ -5970,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="AX15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY15">
         <v>6</v>
@@ -5988,124 +6134,124 @@
         <v>6</v>
       </c>
       <c r="BD15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE15">
         <v>7</v>
       </c>
       <c r="BF15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG15">
         <v>1</v>
       </c>
       <c r="BH15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BI15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BM15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BO15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT15">
         <v>2</v>
       </c>
       <c r="BU15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW15">
         <v>5</v>
       </c>
       <c r="BX15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BY15">
         <v>4</v>
       </c>
       <c r="BZ15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB15">
         <v>4</v>
       </c>
       <c r="CC15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE15">
         <v>1</v>
       </c>
       <c r="CF15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CH15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CJ15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL15">
         <v>5</v>
       </c>
       <c r="CM15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CN15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CO15">
         <v>1</v>
       </c>
       <c r="CP15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CQ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CR15">
         <v>1</v>
@@ -6114,19 +6260,19 @@
         <v>1</v>
       </c>
       <c r="CT15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CU15">
         <v>4</v>
       </c>
       <c r="CV15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW15">
         <v>3</v>
       </c>
       <c r="CX15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CY15">
         <v>4</v>
@@ -6135,135 +6281,138 @@
         <v>4</v>
       </c>
       <c r="DA15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DC15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DD15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DE15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DH15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DI15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DJ15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DK15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DL15">
+        <v>4</v>
+      </c>
+      <c r="DM15">
         <v>0.26635273999999998</v>
       </c>
-      <c r="DM15">
+      <c r="DN15">
         <v>4.3613539999999996E-3</v>
       </c>
-      <c r="DN15">
+      <c r="DO15">
         <v>0.42595034199999998</v>
       </c>
-      <c r="DO15">
+      <c r="DP15">
         <v>2.6613750000000001E-3</v>
       </c>
-      <c r="DP15">
+      <c r="DQ15">
         <v>0.27083333300000001</v>
       </c>
-      <c r="DS15">
+      <c r="DT15">
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16">
         <v>73</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>42</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>32</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>30</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>62</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>14</v>
       </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
       <c r="J16">
         <v>7</v>
       </c>
       <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
         <v>10</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>12</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>50</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>22</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>23</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>22</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>12</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>79</v>
       </c>
-      <c r="S16">
-        <v>6</v>
-      </c>
       <c r="T16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA16">
         <v>4</v>
@@ -6275,67 +6424,67 @@
         <v>4</v>
       </c>
       <c r="AD16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE16">
         <v>5</v>
       </c>
       <c r="AF16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL16">
         <v>4</v>
       </c>
       <c r="AM16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY16">
         <v>4</v>
@@ -6353,19 +6502,19 @@
         <v>4</v>
       </c>
       <c r="BD16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BE16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI16">
         <v>4</v>
@@ -6374,28 +6523,28 @@
         <v>4</v>
       </c>
       <c r="BK16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BL16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BM16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BN16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BO16">
         <v>3</v>
       </c>
       <c r="BP16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BR16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BS16">
         <v>1</v>
@@ -6404,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="BU16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV16">
         <v>4</v>
@@ -6425,16 +6574,16 @@
         <v>4</v>
       </c>
       <c r="CB16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CE16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CF16">
         <v>4</v>
@@ -6446,120 +6595,123 @@
         <v>4</v>
       </c>
       <c r="CI16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CJ16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CK16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CL16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM16">
         <v>4</v>
       </c>
-      <c r="DL16">
+      <c r="CN16">
+        <v>4</v>
+      </c>
+      <c r="DM16">
         <v>0.270248288</v>
       </c>
-      <c r="DM16">
+      <c r="DN16">
         <v>9.5886540000000003E-3</v>
       </c>
-      <c r="DN16">
+      <c r="DO16">
         <v>0.20601027399999999</v>
       </c>
-      <c r="DO16">
+      <c r="DP16">
         <v>1.5357859E-2</v>
       </c>
-      <c r="DP16">
+      <c r="DQ16">
         <v>0.95555555599999997</v>
       </c>
-      <c r="DR16" t="s">
-        <v>123</v>
-      </c>
-      <c r="DS16">
+      <c r="DS16" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT16">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17">
         <v>65</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>32</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>35</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>32</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>29</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>61</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>15</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>11</v>
       </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
       <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
         <v>15</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>13</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>60</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>12</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>23</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>21</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>16</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>72</v>
       </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
       <c r="T17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>3</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA17">
         <v>5</v>
@@ -6568,61 +6720,61 @@
         <v>5</v>
       </c>
       <c r="AC17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE17">
         <v>5</v>
       </c>
       <c r="AF17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -6631,7 +6783,7 @@
         <v>2</v>
       </c>
       <c r="AX17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY17">
         <v>5</v>
@@ -6640,124 +6792,124 @@
         <v>5</v>
       </c>
       <c r="BA17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC17">
         <v>5</v>
       </c>
       <c r="BD17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE17">
         <v>6</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG17">
         <v>2</v>
       </c>
       <c r="BH17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BL17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BM17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BN17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BO17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS17">
         <v>1</v>
       </c>
       <c r="BT17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BW17">
         <v>5</v>
       </c>
       <c r="BX17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BY17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CA17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CC17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CE17">
         <v>2</v>
       </c>
       <c r="CF17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CG17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CH17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CI17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CJ17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CK17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CL17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CN17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CO17">
         <v>2</v>
@@ -6766,135 +6918,138 @@
         <v>2</v>
       </c>
       <c r="CQ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CR17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS17">
         <v>2</v>
       </c>
       <c r="CT17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU17">
         <v>5</v>
       </c>
       <c r="CV17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CX17">
         <v>5</v>
       </c>
       <c r="CY17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DA17">
         <v>5</v>
       </c>
       <c r="DB17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DC17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DD17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DE17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="DF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DG17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DH17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DI17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DJ17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DK17">
         <v>3</v>
       </c>
       <c r="DL17">
+        <v>3</v>
+      </c>
+      <c r="DM17">
         <v>0.23756849299999999</v>
       </c>
-      <c r="DM17">
+      <c r="DN17">
         <v>2.8043492999999999E-2</v>
       </c>
-      <c r="DN17">
+      <c r="DO17">
         <v>0.18507705499999999</v>
       </c>
-      <c r="DO17">
+      <c r="DP17">
         <v>2.4610416999999999E-2</v>
       </c>
-      <c r="DP17">
+      <c r="DQ17">
         <v>0.29787234000000001</v>
       </c>
-      <c r="DQ17">
+      <c r="DR17">
         <v>0.200479452</v>
       </c>
-      <c r="DR17">
+      <c r="DS17">
         <v>1.3088328999999999E-2</v>
       </c>
-      <c r="DS17">
+      <c r="DT17">
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18">
         <v>61</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>46</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>31</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>35</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>66</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12</v>
       </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
         <v>8</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>9</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>41</v>
-      </c>
-      <c r="N18">
-        <v>26</v>
       </c>
       <c r="O18">
         <v>26</v>
@@ -6903,34 +7058,34 @@
         <v>26</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
         <v>82</v>
       </c>
-      <c r="S18">
-        <v>6</v>
-      </c>
       <c r="T18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA18">
         <v>6</v>
@@ -6948,49 +7103,49 @@
         <v>6</v>
       </c>
       <c r="AF18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI18">
         <v>1</v>
       </c>
       <c r="AJ18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AU18">
         <v>1</v>
@@ -6999,10 +7154,10 @@
         <v>1</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY18">
         <v>7</v>
@@ -7026,37 +7181,37 @@
         <v>7</v>
       </c>
       <c r="BF18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG18">
         <v>1</v>
       </c>
       <c r="BH18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ18">
         <v>1</v>
       </c>
       <c r="BK18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BL18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BM18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BN18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BO18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BQ18">
         <v>1</v>
@@ -7074,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="BV18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BW18">
         <v>7</v>
@@ -7098,37 +7253,37 @@
         <v>7</v>
       </c>
       <c r="CD18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CE18">
         <v>1</v>
       </c>
       <c r="CF18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CG18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH18">
         <v>1</v>
       </c>
       <c r="CI18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CL18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM18">
         <v>8</v>
       </c>
       <c r="CN18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CO18">
         <v>1</v>
@@ -7146,114 +7301,117 @@
         <v>1</v>
       </c>
       <c r="CT18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CU18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CV18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CW18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CX18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CY18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CZ18">
         <v>4</v>
       </c>
       <c r="DA18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="DB18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DC18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DD18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DE18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DF18">
         <v>1</v>
       </c>
       <c r="DG18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DH18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DI18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DJ18">
+        <v>6</v>
+      </c>
+      <c r="DK18">
         <v>8</v>
       </c>
-      <c r="DK18">
-        <v>6</v>
-      </c>
       <c r="DL18">
+        <v>6</v>
+      </c>
+      <c r="DM18">
         <v>0.289041096</v>
       </c>
-      <c r="DM18">
+      <c r="DN18">
         <v>6.9467390000000004E-3</v>
       </c>
-      <c r="DN18">
+      <c r="DO18">
         <v>0.76954623300000002</v>
       </c>
-      <c r="DO18">
+      <c r="DP18">
         <v>3.8128000000000001E-4</v>
       </c>
-      <c r="DP18">
+      <c r="DQ18">
         <v>0.9375</v>
       </c>
-      <c r="DQ18">
+      <c r="DR18">
         <v>0.18815068500000001</v>
       </c>
-      <c r="DR18">
+      <c r="DS18">
         <v>9.3276349999999994E-2</v>
       </c>
-      <c r="DS18">
+      <c r="DT18">
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
         <v>74</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>41</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>35</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>29</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>64</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12</v>
       </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
       <c r="J19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -7262,106 +7420,106 @@
         <v>10</v>
       </c>
       <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
         <v>49</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>17</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>27</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>28</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>10</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>82</v>
       </c>
-      <c r="S19">
-        <v>6</v>
-      </c>
       <c r="T19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB19">
         <v>6</v>
       </c>
       <c r="AC19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19">
         <v>5</v>
       </c>
       <c r="AF19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI19">
         <v>1</v>
       </c>
       <c r="AJ19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AO19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>1</v>
@@ -7370,19 +7528,19 @@
         <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY19">
         <v>5</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB19">
         <v>5</v>
@@ -7391,73 +7549,73 @@
         <v>5</v>
       </c>
       <c r="BD19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BG19">
         <v>1</v>
       </c>
       <c r="BH19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BK19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BL19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BM19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BN19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT19">
         <v>3</v>
       </c>
       <c r="BU19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BX19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BY19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CA19">
         <v>7</v>
@@ -7469,43 +7627,43 @@
         <v>7</v>
       </c>
       <c r="CD19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CE19">
         <v>1</v>
       </c>
       <c r="CF19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CG19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CH19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CI19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CJ19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CL19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CM19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CN19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CQ19">
         <v>1</v>
@@ -7517,16 +7675,16 @@
         <v>1</v>
       </c>
       <c r="CT19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU19">
         <v>5</v>
       </c>
       <c r="CV19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CW19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CX19">
         <v>5</v>
@@ -7535,132 +7693,135 @@
         <v>5</v>
       </c>
       <c r="CZ19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DB19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DC19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DD19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DE19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DF19">
         <v>3</v>
       </c>
       <c r="DG19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="DH19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DI19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DJ19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DK19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DL19">
+        <v>6</v>
+      </c>
+      <c r="DM19">
         <v>0.194580479</v>
       </c>
-      <c r="DM19">
+      <c r="DN19">
         <v>3.7777293000000003E-2</v>
       </c>
-      <c r="DN19">
+      <c r="DO19">
         <v>0.18605308200000001</v>
       </c>
-      <c r="DO19">
+      <c r="DP19">
         <v>2.9683891E-2</v>
       </c>
-      <c r="DP19">
+      <c r="DQ19">
         <v>0.5625</v>
       </c>
-      <c r="DQ19">
+      <c r="DR19">
         <v>0.33597602700000001</v>
       </c>
-      <c r="DR19">
+      <c r="DS19">
         <v>7.9714020000000007E-3</v>
       </c>
-      <c r="DS19">
+      <c r="DT19">
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20">
         <v>74</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>53</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>32</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>30</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>62</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>13</v>
       </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
       <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
         <v>9</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>14</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>8</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>49</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>11</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>13</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>21</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>24</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>69</v>
       </c>
-      <c r="S20">
-        <v>7</v>
-      </c>
       <c r="T20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>1</v>
@@ -7672,61 +7833,61 @@
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20">
         <v>5</v>
       </c>
       <c r="AD20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20">
         <v>6</v>
       </c>
       <c r="AF20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG20">
         <v>5</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI20">
         <v>1</v>
       </c>
       <c r="AJ20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS20">
         <v>1</v>
@@ -7744,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="AX20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY20">
         <v>5</v>
@@ -7756,49 +7917,49 @@
         <v>5</v>
       </c>
       <c r="BB20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC20">
         <v>6</v>
       </c>
       <c r="BD20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BE20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BG20">
         <v>1</v>
       </c>
       <c r="BH20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BM20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN20">
         <v>5</v>
       </c>
       <c r="BO20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BQ20">
         <v>1</v>
@@ -7816,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="BV20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BW20">
         <v>6</v>
@@ -7825,115 +7986,115 @@
         <v>6</v>
       </c>
       <c r="BY20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CA20">
         <v>6</v>
       </c>
       <c r="CB20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CC20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CD20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE20">
         <v>1</v>
       </c>
       <c r="CF20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CG20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH20">
         <v>1</v>
       </c>
       <c r="CI20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CL20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CM20">
         <v>7</v>
       </c>
       <c r="CN20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CO20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CQ20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS20">
         <v>1</v>
       </c>
       <c r="CT20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CV20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CX20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CY20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CZ20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="DA20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DB20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DC20">
         <v>2</v>
       </c>
       <c r="DD20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DE20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DF20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="DH20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DI20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DJ20">
         <v>5</v>
@@ -7942,168 +8103,171 @@
         <v>5</v>
       </c>
       <c r="DL20">
+        <v>5</v>
+      </c>
+      <c r="DM20">
         <v>3.9768836000000002E-2</v>
       </c>
-      <c r="DM20">
+      <c r="DN20">
         <v>0.50736377099999996</v>
       </c>
-      <c r="DN20">
+      <c r="DO20">
         <v>1.9109589E-2</v>
       </c>
-      <c r="DO20">
+      <c r="DP20">
         <v>0.61733856600000003</v>
       </c>
-      <c r="DP20">
+      <c r="DQ20">
         <v>0.95833333300000001</v>
       </c>
-      <c r="DQ20">
+      <c r="DR20">
         <v>8.5582192000000001E-2</v>
       </c>
-      <c r="DR20">
+      <c r="DS20">
         <v>0.100140618</v>
       </c>
-      <c r="DS20">
+      <c r="DT20">
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:124" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21">
         <v>42</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>41</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>30</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>35</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>48</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>83</v>
       </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
       <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
         <v>9</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>8</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>14</v>
       </c>
-      <c r="L21">
-        <v>6</v>
-      </c>
       <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
         <v>44</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>21</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>16</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>20</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
       <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
         <v>58</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
       <c r="U21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB21">
         <v>6</v>
       </c>
       <c r="AC21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI21">
         <v>2</v>
       </c>
       <c r="AJ21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>1</v>
@@ -8115,52 +8279,52 @@
         <v>1</v>
       </c>
       <c r="AX21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA21">
         <v>3</v>
       </c>
       <c r="BB21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BE21">
         <v>7</v>
       </c>
       <c r="BF21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BL21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BM21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BN21">
         <v>6</v>
@@ -8169,109 +8333,109 @@
         <v>6</v>
       </c>
       <c r="BP21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BQ21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS21">
         <v>1</v>
       </c>
       <c r="BT21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BX21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZ21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CA21">
         <v>6</v>
       </c>
       <c r="CB21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CD21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CE21">
         <v>1</v>
       </c>
       <c r="CF21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CG21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CJ21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CK21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CL21">
         <v>6</v>
       </c>
       <c r="CM21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CO21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CP21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CQ21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CR21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CV21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CW21">
         <v>5</v>
       </c>
       <c r="CX21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CY21">
         <v>6</v>
@@ -8280,64 +8444,70 @@
         <v>6</v>
       </c>
       <c r="DA21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DB21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DC21">
         <v>1</v>
       </c>
       <c r="DD21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DE21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DF21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="DH21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DI21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DJ21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DK21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DL21">
+        <v>6</v>
+      </c>
+      <c r="DM21">
         <v>0.505736301</v>
       </c>
-      <c r="DM21">
+      <c r="DN21">
         <v>1.78155E-3</v>
       </c>
-      <c r="DN21">
+      <c r="DO21">
         <v>0.41334760300000001</v>
       </c>
-      <c r="DO21">
+      <c r="DP21">
         <v>2.0294649999999998E-3</v>
       </c>
-      <c r="DP21">
+      <c r="DQ21">
         <v>0.47916666699999999</v>
       </c>
-      <c r="DQ21">
+      <c r="DR21">
         <v>0.63345034200000006</v>
       </c>
-      <c r="DR21">
+      <c r="DS21">
         <v>8.6998999999999996E-4</v>
       </c>
-      <c r="DS21">
+      <c r="DT21">
         <v>0.52500000000000002</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>